--- a/Code/Results/Cases/Case_1_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_1_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3.440349235297845</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.348377602962799</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3.588206272192707</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>7.318496704826089</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0006635728835947077</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,125 +451,1097 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2.651780461046457</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>2.963494839419525</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.2883733214158468</v>
+      </c>
+      <c r="E3">
+        <v>3.058963840179501</v>
+      </c>
+      <c r="F3">
+        <v>6.117265617857129</v>
+      </c>
+      <c r="G3">
+        <v>0.0006885822053766535</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>2.254329313995072</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>2.681798847069217</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.2553735480678512</v>
+      </c>
+      <c r="E4">
+        <v>2.749315790413505</v>
+      </c>
+      <c r="F4">
+        <v>5.441676664255908</v>
+      </c>
+      <c r="G4">
+        <v>0.0007037400918571271</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>2.02060340675402</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>2.569235150439681</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.2426877269882368</v>
+      </c>
+      <c r="E5">
+        <v>2.626038337992213</v>
+      </c>
+      <c r="F5">
+        <v>5.178647964509878</v>
+      </c>
+      <c r="G5">
+        <v>0.0007099006161152679</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1.927375021526103</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>2.550664695602791</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.240622275550237</v>
+      </c>
+      <c r="E6">
+        <v>2.60572084536976</v>
+      </c>
+      <c r="F6">
+        <v>5.135632947207995</v>
+      </c>
+      <c r="G6">
+        <v>0.0007109233906847675</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1.91200209590744</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>2.680272393462246</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.2551996096684519</v>
+      </c>
+      <c r="E7">
+        <v>2.747642522914745</v>
+      </c>
+      <c r="F7">
+        <v>5.438083402716217</v>
+      </c>
+      <c r="G7">
+        <v>0.0007038232033997142</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>2.01933858948027</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>3.273244475796275</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.3267481906005401</v>
+      </c>
+      <c r="E8">
+        <v>3.401887858895662</v>
+      </c>
+      <c r="F8">
+        <v>6.889156668790832</v>
+      </c>
+      <c r="G8">
+        <v>0.0006722603133987871</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>2.512202317757271</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>4.559959567142187</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.511368071667107</v>
+      </c>
+      <c r="E9">
+        <v>4.870625075723865</v>
+      </c>
+      <c r="F9">
+        <v>10.44804980922223</v>
+      </c>
+      <c r="G9">
+        <v>0.0006065591712678026</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>3.598362779877277</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>5.665447554498996</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.7092106831733531</v>
+      </c>
+      <c r="E10">
+        <v>6.228292244730369</v>
+      </c>
+      <c r="F10">
+        <v>14.05568202108469</v>
+      </c>
+      <c r="G10">
+        <v>0.0005503317531604982</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>4.561829477345213</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>6.247795497663674</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.833081832421243</v>
+      </c>
+      <c r="E11">
+        <v>7.003085475482322</v>
+      </c>
+      <c r="F11">
+        <v>16.23079553058517</v>
+      </c>
+      <c r="G11">
+        <v>0.0005197998056375801</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>5.087035064776217</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>6.489688937059896</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.8897024545448176</v>
+      </c>
+      <c r="E12">
+        <v>7.342239978407065</v>
+      </c>
+      <c r="F12">
+        <v>17.20609260940648</v>
+      </c>
+      <c r="G12">
+        <v>0.0005067645863831151</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>5.31011964281123</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>6.436323503541644</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.8769159357103717</v>
+      </c>
+      <c r="E13">
+        <v>7.266392963411306</v>
+      </c>
+      <c r="F13">
+        <v>16.98683978748414</v>
+      </c>
+      <c r="G13">
+        <v>0.0005096625789610115</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>5.260617393769564</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>6.267161736583603</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.8374922006050554</v>
+      </c>
+      <c r="E14">
+        <v>7.029815821177749</v>
+      </c>
+      <c r="F14">
+        <v>16.30717759624662</v>
+      </c>
+      <c r="G14">
+        <v>0.0005187652501413848</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>5.104776799683634</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>6.166839914262027</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.81486430240858</v>
+      </c>
+      <c r="E15">
+        <v>6.892088595084914</v>
+      </c>
+      <c r="F15">
+        <v>15.91453865097407</v>
+      </c>
+      <c r="G15">
+        <v>0.0005241090023295531</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>5.013080325595638</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>5.629602263083825</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.7020895244535552</v>
+      </c>
+      <c r="E16">
+        <v>6.182215920027545</v>
+      </c>
+      <c r="F16">
+        <v>13.92881775626307</v>
+      </c>
+      <c r="G16">
+        <v>0.0005521813157288807</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>4.529970170451804</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>5.324635280521136</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.6435860223095631</v>
+      </c>
+      <c r="E17">
+        <v>5.796539133871221</v>
+      </c>
+      <c r="F17">
+        <v>12.87859258177969</v>
+      </c>
+      <c r="G17">
+        <v>0.0005678176419993993</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>4.260795024417803</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>5.155875127357888</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.6127181645590554</v>
+      </c>
+      <c r="E18">
+        <v>5.587559090361282</v>
+      </c>
+      <c r="F18">
+        <v>12.31851522317376</v>
+      </c>
+      <c r="G18">
+        <v>0.0005764087968169943</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>4.113174605189045</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>5.099718261164867</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.6026704117471127</v>
+      </c>
+      <c r="E19">
+        <v>5.518656268307751</v>
+      </c>
+      <c r="F19">
+        <v>12.13528035378559</v>
+      </c>
+      <c r="G19">
+        <v>0.0005792602178100961</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>4.064246011167484</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>5.356370407097415</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.6495067304255144</v>
+      </c>
+      <c r="E20">
+        <v>5.836173752451401</v>
+      </c>
+      <c r="F20">
+        <v>12.9855399091511</v>
+      </c>
+      <c r="G20">
+        <v>0.0005661978087772623</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>4.288656425121872</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>6.316121018343097</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.848734360606386</v>
+      </c>
+      <c r="E21">
+        <v>7.097707820348063</v>
+      </c>
+      <c r="F21">
+        <v>16.50155930581462</v>
+      </c>
+      <c r="G21">
+        <v>0.0005161431448847454</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>5.149718207665046</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>7.090763086322625</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1.047344603547003</v>
+      </c>
+      <c r="E22">
+        <v>8.245633312147646</v>
+      </c>
+      <c r="F22">
+        <v>19.86327205413642</v>
+      </c>
+      <c r="G22">
+        <v>0.0004730016571119105</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>5.881116071963163</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>6.654541706642533</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0.930338278723184</v>
+      </c>
+      <c r="E23">
+        <v>7.580557410013682</v>
+      </c>
+      <c r="F23">
+        <v>17.89909803387485</v>
+      </c>
+      <c r="G23">
+        <v>0.0004977228242074787</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>5.464150347066493</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>5.342003021206835</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.6468216109132356</v>
+      </c>
+      <c r="E24">
+        <v>5.81821641713745</v>
+      </c>
+      <c r="F24">
+        <v>12.93705675484762</v>
+      </c>
+      <c r="G24">
+        <v>0.0005669313366916421</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>4.276038684180378</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>4.192322616661272</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.4541887072418263</v>
+      </c>
+      <c r="E25">
+        <v>4.44176815268446</v>
+      </c>
+      <c r="F25">
+        <v>9.369123063090825</v>
+      </c>
+      <c r="G25">
+        <v>0.0006251420366113174</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>3.284998070674931</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_32/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.440349235297845</v>
+        <v>0.1408334959903783</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.348377602962799</v>
+        <v>0.02815759245906335</v>
       </c>
       <c r="E2">
-        <v>3.588206272192707</v>
+        <v>1.451218184045175</v>
       </c>
       <c r="F2">
-        <v>7.318496704826089</v>
+        <v>2.251880466305067</v>
       </c>
       <c r="G2">
-        <v>0.0006635728835947077</v>
+        <v>0.0007644544969453108</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.333922006334376</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>5.22349294778536</v>
       </c>
       <c r="L2">
-        <v>2.651780461046457</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.8608120249066076</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.963494839419525</v>
+        <v>0.1229783402520184</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2883733214158468</v>
+        <v>0.02830242112411696</v>
       </c>
       <c r="E3">
-        <v>3.058963840179501</v>
+        <v>1.234393562940639</v>
       </c>
       <c r="F3">
-        <v>6.117265617857129</v>
+        <v>1.988558541704563</v>
       </c>
       <c r="G3">
-        <v>0.0006885822053766535</v>
+        <v>0.000774854099729088</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.3324041914971971</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4.47717166386883</v>
       </c>
       <c r="L3">
-        <v>2.254329313995072</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.8959203143383121</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.681798847069217</v>
+        <v>0.1119803258671084</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2553735480678512</v>
+        <v>0.02854755826815847</v>
       </c>
       <c r="E4">
-        <v>2.749315790413505</v>
+        <v>1.105686830014875</v>
       </c>
       <c r="F4">
-        <v>5.441676664255908</v>
+        <v>1.833609128071146</v>
       </c>
       <c r="G4">
-        <v>0.0007037400918571271</v>
+        <v>0.0007813489835235961</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3322034845158903</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>4.029763379066878</v>
       </c>
       <c r="L4">
-        <v>2.02060340675402</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.9192858142894309</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.569235150439681</v>
+        <v>0.1074895723547158</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2426877269882368</v>
+        <v>0.02868201536025339</v>
       </c>
       <c r="E5">
-        <v>2.626038337992213</v>
+        <v>1.054159099315527</v>
       </c>
       <c r="F5">
-        <v>5.178647964509878</v>
+        <v>1.771939936174789</v>
       </c>
       <c r="G5">
-        <v>0.0007099006161152679</v>
+        <v>0.0007840269137499199</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.332292507380803</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3.84972207571667</v>
       </c>
       <c r="L5">
-        <v>1.927375021526103</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.929232191887948</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.550664695602791</v>
+        <v>0.1067433386461261</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.240622275550237</v>
+        <v>0.02870630382113148</v>
       </c>
       <c r="E6">
-        <v>2.60572084536976</v>
+        <v>1.045653495541174</v>
       </c>
       <c r="F6">
-        <v>5.135632947207995</v>
+        <v>1.761782924756616</v>
       </c>
       <c r="G6">
-        <v>0.0007109233906847675</v>
+        <v>0.000784473566667887</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.332317249475679</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3.819952162854122</v>
       </c>
       <c r="L6">
-        <v>1.91200209590744</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.9309086179019488</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.680272393462246</v>
+        <v>0.1119197985828038</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2551996096684519</v>
+        <v>0.02854923741848125</v>
       </c>
       <c r="E7">
-        <v>2.747642522914745</v>
+        <v>1.104988412784337</v>
       </c>
       <c r="F7">
-        <v>5.438083402716217</v>
+        <v>1.832771738263929</v>
       </c>
       <c r="G7">
-        <v>0.0007038232033997142</v>
+        <v>0.0007813849681413057</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.3322040097865795</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>4.027326590374912</v>
       </c>
       <c r="L7">
-        <v>2.01933858948027</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.9194182721385928</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.273244475796275</v>
+        <v>0.134684143944483</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3267481906005401</v>
+        <v>0.02817204519487859</v>
       </c>
       <c r="E8">
-        <v>3.401887858895662</v>
+        <v>1.375414989865106</v>
       </c>
       <c r="F8">
-        <v>6.889156668790832</v>
+        <v>2.159549811886663</v>
       </c>
       <c r="G8">
-        <v>0.0006722603133987871</v>
+        <v>0.0007680199161151924</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.3332385910402884</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>4.963627592119451</v>
       </c>
       <c r="L8">
-        <v>2.512202317757271</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.8725226898109355</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.559959567142187</v>
+        <v>0.1790601885790579</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.511368071667107</v>
+        <v>0.02892790940241241</v>
       </c>
       <c r="E9">
-        <v>4.870625075723865</v>
+        <v>1.951146077905534</v>
       </c>
       <c r="F9">
-        <v>10.44804980922223</v>
+        <v>2.865274265804089</v>
       </c>
       <c r="G9">
-        <v>0.0006065591712678026</v>
+        <v>0.0007424859049991478</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.3417418601116609</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>6.90912599530526</v>
       </c>
       <c r="L9">
-        <v>3.598362779877277</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.7964818966382268</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.665447554498996</v>
+        <v>0.2115214932744891</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.7092106831733531</v>
+        <v>0.03084074691209082</v>
       </c>
       <c r="E10">
-        <v>6.228292244730369</v>
+        <v>2.419683125509167</v>
       </c>
       <c r="F10">
-        <v>14.05568202108469</v>
+        <v>3.442609894976329</v>
       </c>
       <c r="G10">
-        <v>0.0005503317531604982</v>
+        <v>0.0007238117945305765</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.3530348084599026</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>8.444622132333052</v>
       </c>
       <c r="L10">
-        <v>4.561829477345213</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.752923176683808</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.247795497663674</v>
+        <v>0.2262622507309828</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.833081832421243</v>
+        <v>0.03214041633798814</v>
       </c>
       <c r="E11">
-        <v>7.003085475482322</v>
+        <v>2.648075593793948</v>
       </c>
       <c r="F11">
-        <v>16.23079553058517</v>
+        <v>3.723552428339048</v>
       </c>
       <c r="G11">
-        <v>0.0005197998056375801</v>
+        <v>0.0007152413411942567</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.3595732308292199</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>9.177564867106071</v>
       </c>
       <c r="L11">
-        <v>5.087035064776217</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.7365196927645314</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.489688937059896</v>
+        <v>0.2318406361327163</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.8897024545448176</v>
+        <v>0.03270940121954879</v>
       </c>
       <c r="E12">
-        <v>7.342239978407065</v>
+        <v>2.737350644118081</v>
       </c>
       <c r="F12">
-        <v>17.20609260940648</v>
+        <v>3.833161063802606</v>
       </c>
       <c r="G12">
-        <v>0.0005067645863831151</v>
+        <v>0.0007119750130308855</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.3622825246361359</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>9.461281750156559</v>
       </c>
       <c r="L12">
-        <v>5.31011964281123</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.7308775070518152</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.436323503541644</v>
+        <v>0.2306393909932751</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.8769159357103717</v>
+        <v>0.03258315914800392</v>
       </c>
       <c r="E13">
-        <v>7.266392963411306</v>
+        <v>2.717988478260324</v>
       </c>
       <c r="F13">
-        <v>16.98683978748414</v>
+        <v>3.809400738484015</v>
       </c>
       <c r="G13">
-        <v>0.0005096625789610115</v>
+        <v>0.0007126795895847622</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.361688072928338</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>9.399881493800819</v>
       </c>
       <c r="L13">
-        <v>5.260617393769564</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.732065878801933</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.267161736583603</v>
+        <v>0.2267212599980439</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.8374922006050554</v>
+        <v>0.03218558649751913</v>
       </c>
       <c r="E14">
-        <v>7.029815821177749</v>
+        <v>2.65536045961602</v>
       </c>
       <c r="F14">
-        <v>16.30717759624662</v>
+        <v>3.732501567552049</v>
       </c>
       <c r="G14">
-        <v>0.0005187652501413848</v>
+        <v>0.0007149731027774508</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.3597912435135697</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>9.200774839899509</v>
       </c>
       <c r="L14">
-        <v>5.104776799683634</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.7360435791952682</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.166839914262027</v>
+        <v>0.2243208224868738</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.81486430240858</v>
+        <v>0.03195258282444513</v>
       </c>
       <c r="E15">
-        <v>6.892088595084914</v>
+        <v>2.617382376695716</v>
       </c>
       <c r="F15">
-        <v>15.91453865097407</v>
+        <v>3.685837956990696</v>
       </c>
       <c r="G15">
-        <v>0.0005241090023295531</v>
+        <v>0.0007163748885183896</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.3586608254430317</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>9.079660339751797</v>
       </c>
       <c r="L15">
-        <v>5.013080325595638</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.7385568347426386</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.629602263083825</v>
+        <v>0.2105576386073125</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.7020895244535552</v>
+        <v>0.03076565353563154</v>
       </c>
       <c r="E16">
-        <v>6.182215920027545</v>
+        <v>2.405111445261298</v>
       </c>
       <c r="F16">
-        <v>13.92881775626307</v>
+        <v>3.424665468790408</v>
       </c>
       <c r="G16">
-        <v>0.0005521813157288807</v>
+        <v>0.0007243695688986166</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.3526382807325277</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>8.397513274705545</v>
       </c>
       <c r="L16">
-        <v>4.529970170451804</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.7540701932436491</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.324635280521136</v>
+        <v>0.202107813440918</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.6435860223095631</v>
+        <v>0.03015706714166555</v>
       </c>
       <c r="E17">
-        <v>5.796539133871221</v>
+        <v>2.279173763118749</v>
       </c>
       <c r="F17">
-        <v>12.87859258177969</v>
+        <v>3.269513633086319</v>
       </c>
       <c r="G17">
-        <v>0.0005678176419993993</v>
+        <v>0.0007292482646951029</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.3493232458680779</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>7.9886402577539</v>
       </c>
       <c r="L17">
-        <v>4.260795024417803</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.7645119216307847</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.155875127357888</v>
+        <v>0.197245241290517</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.6127181645590554</v>
+        <v>0.02984635595736762</v>
       </c>
       <c r="E18">
-        <v>5.587559090361282</v>
+        <v>2.208130216039308</v>
       </c>
       <c r="F18">
-        <v>12.31851522317376</v>
+        <v>3.181955898876765</v>
       </c>
       <c r="G18">
-        <v>0.0005764087968169943</v>
+        <v>0.0007320479700614981</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.3475461793149179</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>7.756622102658014</v>
       </c>
       <c r="L18">
-        <v>4.113174605189045</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.7708332572513115</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.099718261164867</v>
+        <v>0.1955984308859939</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.6026704117471127</v>
+        <v>0.02974751174277657</v>
       </c>
       <c r="E19">
-        <v>5.518656268307751</v>
+        <v>2.184299529901651</v>
       </c>
       <c r="F19">
-        <v>12.13528035378559</v>
+        <v>3.152583269834508</v>
       </c>
       <c r="G19">
-        <v>0.0005792602178100961</v>
+        <v>0.0007329950739923818</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.3469658939797284</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>7.678573873368407</v>
       </c>
       <c r="L19">
-        <v>4.064246011167484</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.7730256092535512</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.356370407097415</v>
+        <v>0.2030075647758167</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.6495067304255144</v>
+        <v>0.03021768466130226</v>
       </c>
       <c r="E20">
-        <v>5.836173752451401</v>
+        <v>2.292432102797619</v>
       </c>
       <c r="F20">
-        <v>12.9855399091511</v>
+        <v>3.28585192911882</v>
       </c>
       <c r="G20">
-        <v>0.0005661978087772623</v>
+        <v>0.0007287296460963821</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.3496625078496649</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>8.031831042739498</v>
       </c>
       <c r="L20">
-        <v>4.288656425121872</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.7633672078530367</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.316121018343097</v>
+        <v>0.2278722077282964</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.848734360606386</v>
+        <v>0.0323001378095924</v>
       </c>
       <c r="E21">
-        <v>7.097707820348063</v>
+        <v>2.673674634809657</v>
       </c>
       <c r="F21">
-        <v>16.50155930581462</v>
+        <v>3.754995907917476</v>
       </c>
       <c r="G21">
-        <v>0.0005161431448847454</v>
+        <v>0.000714300100853592</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.3603417687238846</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>9.259078800058319</v>
       </c>
       <c r="L21">
-        <v>5.149718207665046</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.7348590608247036</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.090763086322625</v>
+        <v>0.2441015733897984</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.047344603547003</v>
+        <v>0.03411917119866104</v>
       </c>
       <c r="E22">
-        <v>8.245633312147646</v>
+        <v>2.939490616475325</v>
       </c>
       <c r="F22">
-        <v>19.86327205413642</v>
+        <v>4.080768112060468</v>
       </c>
       <c r="G22">
-        <v>0.0004730016571119105</v>
+        <v>0.0007047412987938844</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.3687013270857591</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>10.09789345877584</v>
       </c>
       <c r="L22">
-        <v>5.881116071963163</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.7195970167177563</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.654541706642533</v>
+        <v>0.2354415724124124</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.930338278723184</v>
+        <v>0.03310029605705722</v>
       </c>
       <c r="E23">
-        <v>7.580557410013682</v>
+        <v>2.79585494241077</v>
       </c>
       <c r="F23">
-        <v>17.89909803387485</v>
+        <v>3.904911872078401</v>
       </c>
       <c r="G23">
-        <v>0.0004977228242074787</v>
+        <v>0.0007098587239388408</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.3641010360343486</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>9.646359833215001</v>
       </c>
       <c r="L23">
-        <v>5.464150347066493</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.7274033814784389</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.342003021206835</v>
+        <v>0.2026008017079022</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.6468216109132356</v>
+        <v>0.03019015854521712</v>
       </c>
       <c r="E24">
-        <v>5.81821641713745</v>
+        <v>2.286433814897237</v>
       </c>
       <c r="F24">
-        <v>12.93705675484762</v>
+        <v>3.278460316343541</v>
       </c>
       <c r="G24">
-        <v>0.0005669313366916421</v>
+        <v>0.0007289641287273942</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.3495087286663363</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>8.012295081614013</v>
       </c>
       <c r="L24">
-        <v>4.276038684180378</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.7638837473986086</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.192322616661272</v>
+        <v>0.1670815958351142</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4541887072418263</v>
+        <v>0.02852297336910325</v>
       </c>
       <c r="E25">
-        <v>4.44176815268446</v>
+        <v>1.788909572488748</v>
       </c>
       <c r="F25">
-        <v>9.369123063090825</v>
+        <v>2.665623743880246</v>
       </c>
       <c r="G25">
-        <v>0.0006251420366113174</v>
+        <v>0.0007493514022224968</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.3386453589367378</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>6.367459657710754</v>
       </c>
       <c r="L25">
-        <v>3.284998070674931</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.8151068293824153</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_32/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1408334959903783</v>
+        <v>0.04899958594673137</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02815759245906335</v>
+        <v>0.04890864427885688</v>
       </c>
       <c r="E2">
-        <v>1.451218184045175</v>
+        <v>0.4099742985248014</v>
       </c>
       <c r="F2">
-        <v>2.251880466305067</v>
+        <v>1.647936557103208</v>
       </c>
       <c r="G2">
-        <v>0.0007644544969453108</v>
+        <v>0.002458512755508271</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.333922006334376</v>
+        <v>0.5535243652359512</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.22349294778536</v>
+        <v>1.779141658815718</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8608120249066076</v>
+        <v>1.598384161986061</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1229783402520184</v>
+        <v>0.04336700276643768</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02830242112411696</v>
+        <v>0.0492964254672188</v>
       </c>
       <c r="E3">
-        <v>1.234393562940639</v>
+        <v>0.3573310487299324</v>
       </c>
       <c r="F3">
-        <v>1.988558541704563</v>
+        <v>1.594934397641211</v>
       </c>
       <c r="G3">
-        <v>0.000774854099729088</v>
+        <v>0.002464529494027036</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3324041914971971</v>
+        <v>0.5556605943118704</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.47717166386883</v>
+        <v>1.594978902241678</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8959203143383121</v>
+        <v>1.612384793975117</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1119803258671084</v>
+        <v>0.03991087294078</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02854755826815847</v>
+        <v>0.04956484607794565</v>
       </c>
       <c r="E4">
-        <v>1.105686830014875</v>
+        <v>0.32515709915522</v>
       </c>
       <c r="F4">
-        <v>1.833609128071146</v>
+        <v>1.563605916047322</v>
       </c>
       <c r="G4">
-        <v>0.0007813489835235961</v>
+        <v>0.002468409692499588</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3322034845158903</v>
+        <v>0.5572233815539107</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.029763379066878</v>
+        <v>1.482796537208685</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9192858142894309</v>
+        <v>1.621578194840325</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1074895723547158</v>
+        <v>0.03850321301737836</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02868201536025339</v>
+        <v>0.04968177236794702</v>
       </c>
       <c r="E5">
-        <v>1.054159099315527</v>
+        <v>0.3120801918104661</v>
       </c>
       <c r="F5">
-        <v>1.771939936174789</v>
+        <v>1.551141417440363</v>
       </c>
       <c r="G5">
-        <v>0.0007840269137499199</v>
+        <v>0.002470037839598734</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.332292507380803</v>
+        <v>0.5579231827406801</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.84972207571667</v>
+        <v>1.437299830781797</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.929232191887948</v>
+        <v>1.625474100240524</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1067433386461261</v>
+        <v>0.03826952172735787</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02870630382113148</v>
+        <v>0.04970164108434716</v>
       </c>
       <c r="E6">
-        <v>1.045653495541174</v>
+        <v>0.3099107541411001</v>
       </c>
       <c r="F6">
-        <v>1.761782924756616</v>
+        <v>1.549089844600928</v>
       </c>
       <c r="G6">
-        <v>0.000784473566667887</v>
+        <v>0.002470311032634097</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.332317249475679</v>
+        <v>0.5580431806574282</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.819952162854122</v>
+        <v>1.429758151441149</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9309086179019488</v>
+        <v>1.626130025885736</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1119197985828038</v>
+        <v>0.03989188552924361</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02854923741848125</v>
+        <v>0.04956639255313888</v>
       </c>
       <c r="E7">
-        <v>1.104988412784337</v>
+        <v>0.3249806050883137</v>
       </c>
       <c r="F7">
-        <v>1.832771738263929</v>
+        <v>1.563436596702445</v>
       </c>
       <c r="G7">
-        <v>0.0007813849681413057</v>
+        <v>0.002468431459995206</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3322040097865795</v>
+        <v>0.5572325646809766</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.027326590374912</v>
+        <v>1.482182076276274</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9194182721385928</v>
+        <v>1.621630131750344</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.134684143944483</v>
+        <v>0.04705708974218226</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02817204519487859</v>
+        <v>0.04903600831773502</v>
       </c>
       <c r="E8">
-        <v>1.375414989865106</v>
+        <v>0.3917899312540243</v>
       </c>
       <c r="F8">
-        <v>2.159549811886663</v>
+        <v>1.62940713192819</v>
       </c>
       <c r="G8">
-        <v>0.0007680199161151924</v>
+        <v>0.002460548858358967</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3332385910402884</v>
+        <v>0.5542086944914075</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.963627592119451</v>
+        <v>1.715452808917235</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8725226898109355</v>
+        <v>1.603087325728907</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1790601885790579</v>
+        <v>0.06111983681967104</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02892790940241241</v>
+        <v>0.04824026631132838</v>
       </c>
       <c r="E9">
-        <v>1.951146077905534</v>
+        <v>0.5241424050174288</v>
       </c>
       <c r="F9">
-        <v>2.865274265804089</v>
+        <v>1.768580737753837</v>
       </c>
       <c r="G9">
-        <v>0.0007424859049991478</v>
+        <v>0.002446557421123155</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3417418601116609</v>
+        <v>0.5502807600826323</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.90912599530526</v>
+        <v>2.18030609276019</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7964818966382268</v>
+        <v>1.571487949218174</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2115214932744891</v>
+        <v>0.07145133554138283</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03084074691209082</v>
+        <v>0.04780988175598821</v>
       </c>
       <c r="E10">
-        <v>2.419683125509167</v>
+        <v>0.6224248602630951</v>
       </c>
       <c r="F10">
-        <v>3.442609894976329</v>
+        <v>1.877052154206154</v>
       </c>
       <c r="G10">
-        <v>0.0007238117945305765</v>
+        <v>0.002437159600223961</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3530348084599026</v>
+        <v>0.5486285883411952</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.444622132333052</v>
+        <v>2.526825505937609</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.752923176683808</v>
+        <v>1.551211933603668</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2262622507309828</v>
+        <v>0.076149782467823</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03214041633798814</v>
+        <v>0.0476487622511641</v>
       </c>
       <c r="E11">
-        <v>2.648075593793948</v>
+        <v>0.6674130776613225</v>
       </c>
       <c r="F11">
-        <v>3.723552428339048</v>
+        <v>1.927803640628525</v>
       </c>
       <c r="G11">
-        <v>0.0007152413411942567</v>
+        <v>0.002433073108738219</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3595732308292199</v>
+        <v>0.5481478054799851</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.177564867106071</v>
+        <v>2.685656841289244</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7365196927645314</v>
+        <v>1.54263429102231</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2318406361327163</v>
+        <v>0.07792861126658579</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03270940121954879</v>
+        <v>0.04759283544316162</v>
       </c>
       <c r="E12">
-        <v>2.737350644118081</v>
+        <v>0.6844931037474993</v>
       </c>
       <c r="F12">
-        <v>3.833161063802606</v>
+        <v>1.947228551039558</v>
       </c>
       <c r="G12">
-        <v>0.0007119750130308855</v>
+        <v>0.002431552581094576</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3622825246361359</v>
+        <v>0.5480049266515721</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.461281750156559</v>
+        <v>2.745982573788353</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7308775070518152</v>
+        <v>1.539479759248351</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2306393909932751</v>
+        <v>0.07754552784359703</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03258315914800392</v>
+        <v>0.04760465246238965</v>
       </c>
       <c r="E13">
-        <v>2.717988478260324</v>
+        <v>0.6808125971816423</v>
       </c>
       <c r="F13">
-        <v>3.809400738484015</v>
+        <v>1.943035802766843</v>
       </c>
       <c r="G13">
-        <v>0.0007126795895847622</v>
+        <v>0.002431878858976522</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.361688072928338</v>
+        <v>0.5480339515702113</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.399881493800819</v>
+        <v>2.732982232186657</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.732065878801933</v>
+        <v>1.540154967726636</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2267212599980439</v>
+        <v>0.07629613618523479</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03218558649751913</v>
+        <v>0.04764405860796472</v>
       </c>
       <c r="E14">
-        <v>2.65536045961602</v>
+        <v>0.668817358277181</v>
       </c>
       <c r="F14">
-        <v>3.732501567552049</v>
+        <v>1.929397579123275</v>
       </c>
       <c r="G14">
-        <v>0.0007149731027774508</v>
+        <v>0.002432947475163047</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3597912435135697</v>
+        <v>0.5481352640592547</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.200774839899509</v>
+        <v>2.690616229544389</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7360435791952682</v>
+        <v>1.542372884924134</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2243208224868738</v>
+        <v>0.07553079439095711</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03195258282444513</v>
+        <v>0.04766886135131188</v>
       </c>
       <c r="E15">
-        <v>2.617382376695716</v>
+        <v>0.6614757689624327</v>
       </c>
       <c r="F15">
-        <v>3.685837956990696</v>
+        <v>1.921070777655018</v>
       </c>
       <c r="G15">
-        <v>0.0007163748885183896</v>
+        <v>0.002433605536249005</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3586608254430317</v>
+        <v>0.5482024309635705</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.079660339751797</v>
+        <v>2.664689464157163</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7385568347426386</v>
+        <v>1.543743639490202</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2105576386073125</v>
+        <v>0.0711442382462053</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03076565353563154</v>
+        <v>0.04782111740414052</v>
       </c>
       <c r="E16">
-        <v>2.405111445261298</v>
+        <v>0.6194907156947664</v>
       </c>
       <c r="F16">
-        <v>3.424665468790408</v>
+        <v>1.873764088466373</v>
       </c>
       <c r="G16">
-        <v>0.0007243695688986166</v>
+        <v>0.00243743044150748</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3526382807325277</v>
+        <v>0.5486654784473757</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.397513274705545</v>
+        <v>2.51647024644052</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7540701932436491</v>
+        <v>1.551785565077267</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.202107813440918</v>
+        <v>0.06845274782799038</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03015706714166555</v>
+        <v>0.04792347100906369</v>
       </c>
       <c r="E17">
-        <v>2.279173763118749</v>
+        <v>0.5938084190187709</v>
       </c>
       <c r="F17">
-        <v>3.269513633086319</v>
+        <v>1.845106269159459</v>
       </c>
       <c r="G17">
-        <v>0.0007292482646951029</v>
+        <v>0.002439825076206287</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3493232458680779</v>
+        <v>0.5490190725099424</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.9886402577539</v>
+        <v>2.425854649977055</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7645119216307847</v>
+        <v>1.556885007822345</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.197245241290517</v>
+        <v>0.06690455164824982</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02984635595736762</v>
+        <v>0.047985598704404</v>
       </c>
       <c r="E18">
-        <v>2.208130216039308</v>
+        <v>0.5790626707886446</v>
       </c>
       <c r="F18">
-        <v>3.181955898876765</v>
+        <v>1.828755263178806</v>
       </c>
       <c r="G18">
-        <v>0.0007320479700614981</v>
+        <v>0.002441220172074949</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3475461793149179</v>
+        <v>0.549247924546421</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.756622102658014</v>
+        <v>2.373847250533345</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7708332572513115</v>
+        <v>1.559878833736825</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1955984308859939</v>
+        <v>0.06638034323255226</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02974751174277657</v>
+        <v>0.04800719036507317</v>
       </c>
       <c r="E19">
-        <v>2.184299529901651</v>
+        <v>0.5740743687862135</v>
       </c>
       <c r="F19">
-        <v>3.152583269834508</v>
+        <v>1.823241679059407</v>
       </c>
       <c r="G19">
-        <v>0.0007329950739923818</v>
+        <v>0.002441695584437498</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3469658939797284</v>
+        <v>0.5493297777733019</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.678573873368407</v>
+        <v>2.356257499945059</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7730256092535512</v>
+        <v>1.560902905272528</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2030075647758167</v>
+        <v>0.06873927544239677</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03021768466130226</v>
+        <v>0.04791223752341978</v>
       </c>
       <c r="E20">
-        <v>2.292432102797619</v>
+        <v>0.5965396218323633</v>
       </c>
       <c r="F20">
-        <v>3.28585192911882</v>
+        <v>1.848143230212685</v>
       </c>
       <c r="G20">
-        <v>0.0007287296460963821</v>
+        <v>0.002439568325918149</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3496625078496649</v>
+        <v>0.5489787936025223</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.031831042739498</v>
+        <v>2.43548915907752</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7633672078530367</v>
+        <v>1.556335869568812</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2278722077282964</v>
+        <v>0.07666312421523003</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0323001378095924</v>
+        <v>0.04763234522815907</v>
       </c>
       <c r="E21">
-        <v>2.673674634809657</v>
+        <v>0.672339426516956</v>
       </c>
       <c r="F21">
-        <v>3.754995907917476</v>
+        <v>1.933397820969248</v>
       </c>
       <c r="G21">
-        <v>0.000714300100853592</v>
+        <v>0.002432632867204777</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3603417687238846</v>
+        <v>0.5481044407498885</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.259078800058319</v>
+        <v>2.703055212458423</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7348590608247036</v>
+        <v>1.541718881684645</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2441015733897984</v>
+        <v>0.08183957679544562</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03411917119866104</v>
+        <v>0.04747911114676384</v>
       </c>
       <c r="E22">
-        <v>2.939490616475325</v>
+        <v>0.7221370817743917</v>
       </c>
       <c r="F22">
-        <v>4.080768112060468</v>
+        <v>1.99032176387135</v>
       </c>
       <c r="G22">
-        <v>0.0007047412987938844</v>
+        <v>0.002428257072606777</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3687013270857591</v>
+        <v>0.5477615057918825</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.09789345877584</v>
+        <v>2.87897643635506</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7195970167177563</v>
+        <v>1.532711966407646</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2354415724124124</v>
+        <v>0.07907706726611252</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03310029605705722</v>
+        <v>0.04755814425668348</v>
       </c>
       <c r="E23">
-        <v>2.79585494241077</v>
+        <v>0.6955342292189073</v>
       </c>
       <c r="F23">
-        <v>3.904911872078401</v>
+        <v>1.959828751652026</v>
       </c>
       <c r="G23">
-        <v>0.0007098587239388408</v>
+        <v>0.002430578218926072</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3641010360343486</v>
+        <v>0.5479235471582413</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.646359833215001</v>
+        <v>2.784985248938654</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7274033814784389</v>
+        <v>1.537468907733412</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2026008017079022</v>
+        <v>0.06860973885676458</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03019015854521712</v>
+        <v>0.04791730596341637</v>
       </c>
       <c r="E24">
-        <v>2.286433814897237</v>
+        <v>0.5953047850704536</v>
       </c>
       <c r="F24">
-        <v>3.278460316343541</v>
+        <v>1.846769831838913</v>
       </c>
       <c r="G24">
-        <v>0.0007289641287273942</v>
+        <v>0.002439684345419355</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3495087286663363</v>
+        <v>0.5489969240822603</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.012295081614013</v>
+        <v>2.431133121753021</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7638837473986086</v>
+        <v>1.556583941637655</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1670815958351142</v>
+        <v>0.05731501751981227</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02852297336910325</v>
+        <v>0.04842883869280357</v>
       </c>
       <c r="E25">
-        <v>1.788909572488748</v>
+        <v>0.4881709990556828</v>
       </c>
       <c r="F25">
-        <v>2.665623743880246</v>
+        <v>1.729856005680574</v>
       </c>
       <c r="G25">
-        <v>0.0007493514022224968</v>
+        <v>0.002450186758937369</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3386453589367378</v>
+        <v>0.5511276956902904</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.367459657710754</v>
+        <v>2.053709198861611</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8151068293824153</v>
+        <v>1.579522791424509</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_32/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.04899958594673137</v>
+        <v>0.1408334959901509</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04890864427885688</v>
+        <v>0.0281575924590669</v>
       </c>
       <c r="E2">
-        <v>0.4099742985248014</v>
+        <v>1.451218184045189</v>
       </c>
       <c r="F2">
-        <v>1.647936557103208</v>
+        <v>2.251880466305082</v>
       </c>
       <c r="G2">
-        <v>0.002458512755508271</v>
+        <v>0.0007644544970001642</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5535243652359512</v>
+        <v>0.3339220063343475</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.779141658815718</v>
+        <v>5.223492947785246</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.598384161986061</v>
+        <v>0.8608120249065578</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.04336700276643768</v>
+        <v>0.1229783402520255</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0492964254672188</v>
+        <v>0.02830242112423775</v>
       </c>
       <c r="E3">
-        <v>0.3573310487299324</v>
+        <v>1.234393562940639</v>
       </c>
       <c r="F3">
-        <v>1.594934397641211</v>
+        <v>1.988558541704549</v>
       </c>
       <c r="G3">
-        <v>0.002464529494027036</v>
+        <v>0.0007748540998383339</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5556605943118704</v>
+        <v>0.3324041914972078</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.594978902241678</v>
+        <v>4.477171663868774</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.612384793975117</v>
+        <v>0.8959203143383192</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.03991087294078</v>
+        <v>0.1119803258672576</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04956484607794565</v>
+        <v>0.02854755826816202</v>
       </c>
       <c r="E4">
-        <v>0.32515709915522</v>
+        <v>1.105686830014889</v>
       </c>
       <c r="F4">
-        <v>1.563605916047322</v>
+        <v>1.833609128071146</v>
       </c>
       <c r="G4">
-        <v>0.002468409692499588</v>
+        <v>0.000781348983581234</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5572233815539107</v>
+        <v>0.3322034845158903</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.482796537208685</v>
+        <v>4.029763379066878</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.621578194840325</v>
+        <v>0.9192858142894238</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03850321301737836</v>
+        <v>0.1074895723544813</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04968177236794702</v>
+        <v>0.02868201536015391</v>
       </c>
       <c r="E5">
-        <v>0.3120801918104661</v>
+        <v>1.054159099315498</v>
       </c>
       <c r="F5">
-        <v>1.551141417440363</v>
+        <v>1.771939936174803</v>
       </c>
       <c r="G5">
-        <v>0.002470037839598734</v>
+        <v>0.0007840269137000945</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5579231827406801</v>
+        <v>0.3322925073807994</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.437299830781797</v>
+        <v>3.84972207571667</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.625474100240524</v>
+        <v>0.9292321918879978</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03826952172735787</v>
+        <v>0.1067433386463321</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04970164108434716</v>
+        <v>0.02870630382103556</v>
       </c>
       <c r="E6">
-        <v>0.3099107541411001</v>
+        <v>1.04565349554116</v>
       </c>
       <c r="F6">
-        <v>1.549089844600928</v>
+        <v>1.761782924756616</v>
       </c>
       <c r="G6">
-        <v>0.002470311032634097</v>
+        <v>0.0007844735666957978</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5580431806574282</v>
+        <v>0.332317249475679</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.429758151441149</v>
+        <v>3.819952162854122</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.626130025885736</v>
+        <v>0.9309086179019346</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03989188552924361</v>
+        <v>0.1119197985827114</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04956639255313888</v>
+        <v>0.02854923741837112</v>
       </c>
       <c r="E7">
-        <v>0.3249806050883137</v>
+        <v>1.104988412784365</v>
       </c>
       <c r="F7">
-        <v>1.563436596702445</v>
+        <v>1.832771738263929</v>
       </c>
       <c r="G7">
-        <v>0.002468431459995206</v>
+        <v>0.0007813849681415075</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5572325646809766</v>
+        <v>0.3322040097865795</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.482182076276274</v>
+        <v>4.027326590374741</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.621630131750344</v>
+        <v>0.9194182721386213</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04705708974218226</v>
+        <v>0.1346841439445825</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04903600831773502</v>
+        <v>0.02817204519498517</v>
       </c>
       <c r="E8">
-        <v>0.3917899312540243</v>
+        <v>1.375414989865121</v>
       </c>
       <c r="F8">
-        <v>1.62940713192819</v>
+        <v>2.159549811886663</v>
       </c>
       <c r="G8">
-        <v>0.002460548858358967</v>
+        <v>0.0007680199161708146</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5542086944914075</v>
+        <v>0.333238591040292</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.715452808917235</v>
+        <v>4.963627592119451</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.603087325728907</v>
+        <v>0.8725226898109355</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06111983681967104</v>
+        <v>0.17906018857893</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04824026631132838</v>
+        <v>0.02892790940253676</v>
       </c>
       <c r="E9">
-        <v>0.5241424050174288</v>
+        <v>1.95114607790552</v>
       </c>
       <c r="F9">
-        <v>1.768580737753837</v>
+        <v>2.865274265804118</v>
       </c>
       <c r="G9">
-        <v>0.002446557421123155</v>
+        <v>0.0007424859050609872</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5502807600826323</v>
+        <v>0.3417418601116609</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.18030609276019</v>
+        <v>6.909125995305317</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.571487949218174</v>
+        <v>0.7964818966382268</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07145133554138283</v>
+        <v>0.2115214932743896</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04780988175598821</v>
+        <v>0.03084074691188476</v>
       </c>
       <c r="E10">
-        <v>0.6224248602630951</v>
+        <v>2.419683125509209</v>
       </c>
       <c r="F10">
-        <v>1.877052154206154</v>
+        <v>3.4426098949763</v>
       </c>
       <c r="G10">
-        <v>0.002437159600223961</v>
+        <v>0.0007238117945974825</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5486285883411952</v>
+        <v>0.3530348084599169</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.526825505937609</v>
+        <v>8.444622132333109</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.551211933603668</v>
+        <v>0.752923176683808</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.076149782467823</v>
+        <v>0.2262622507308549</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0476487622511641</v>
+        <v>0.03214041633775366</v>
       </c>
       <c r="E11">
-        <v>0.6674130776613225</v>
+        <v>2.648075593794047</v>
       </c>
       <c r="F11">
-        <v>1.927803640628525</v>
+        <v>3.723552428339048</v>
       </c>
       <c r="G11">
-        <v>0.002433073108738219</v>
+        <v>0.0007152413411396119</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5481478054799851</v>
+        <v>0.3595732308292199</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.685656841289244</v>
+        <v>9.177564867106128</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.54263429102231</v>
+        <v>0.7365196927645883</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.07792861126658579</v>
+        <v>0.2318406361326453</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04759283544316162</v>
+        <v>0.03270940121940669</v>
       </c>
       <c r="E12">
-        <v>0.6844931037474993</v>
+        <v>2.737350644118081</v>
       </c>
       <c r="F12">
-        <v>1.947228551039558</v>
+        <v>3.833161063802635</v>
       </c>
       <c r="G12">
-        <v>0.002431552581094576</v>
+        <v>0.0007119750130293121</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5480049266515721</v>
+        <v>0.3622825246361359</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.745982573788353</v>
+        <v>9.461281750156616</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.539479759248351</v>
+        <v>0.7308775070518578</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.07754552784359703</v>
+        <v>0.2306393909929909</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04760465246238965</v>
+        <v>0.03258315914810339</v>
       </c>
       <c r="E13">
-        <v>0.6808125971816423</v>
+        <v>2.717988478260366</v>
       </c>
       <c r="F13">
-        <v>1.943035802766843</v>
+        <v>3.809400738484044</v>
       </c>
       <c r="G13">
-        <v>0.002431878858976522</v>
+        <v>0.0007126795895965554</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5480339515702113</v>
+        <v>0.361688072928338</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.732982232186657</v>
+        <v>9.399881493800819</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.540154967726636</v>
+        <v>0.7320658788019472</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.07629613618523479</v>
+        <v>0.2267212599979445</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04764405860796472</v>
+        <v>0.03218558649751913</v>
       </c>
       <c r="E14">
-        <v>0.668817358277181</v>
+        <v>2.655360459616091</v>
       </c>
       <c r="F14">
-        <v>1.929397579123275</v>
+        <v>3.732501567552049</v>
       </c>
       <c r="G14">
-        <v>0.002432947475163047</v>
+        <v>0.00071497310284453</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5481352640592547</v>
+        <v>0.3597912435135768</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.690616229544389</v>
+        <v>9.20077483989968</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.542372884924134</v>
+        <v>0.7360435791952682</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.07553079439095711</v>
+        <v>0.2243208224869306</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04766886135131188</v>
+        <v>0.03195258282397617</v>
       </c>
       <c r="E15">
-        <v>0.6614757689624327</v>
+        <v>2.617382376695673</v>
       </c>
       <c r="F15">
-        <v>1.921070777655018</v>
+        <v>3.685837956990696</v>
       </c>
       <c r="G15">
-        <v>0.002433605536249005</v>
+        <v>0.0007163748885059935</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5482024309635705</v>
+        <v>0.3586608254430388</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.664689464157163</v>
+        <v>9.079660339751797</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.543743639490202</v>
+        <v>0.7385568347426386</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.0711442382462053</v>
+        <v>0.210557638607483</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04782111740414052</v>
+        <v>0.03076565353552496</v>
       </c>
       <c r="E16">
-        <v>0.6194907156947664</v>
+        <v>2.405111445261255</v>
       </c>
       <c r="F16">
-        <v>1.873764088466373</v>
+        <v>3.424665468790437</v>
       </c>
       <c r="G16">
-        <v>0.00243743044150748</v>
+        <v>0.0007243695688985907</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5486654784473757</v>
+        <v>0.3526382807324921</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.51647024644052</v>
+        <v>8.397513274705602</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.551785565077267</v>
+        <v>0.7540701932437059</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.06845274782799038</v>
+        <v>0.2021078134408043</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04792347100906369</v>
+        <v>0.03015706714179345</v>
       </c>
       <c r="E17">
-        <v>0.5938084190187709</v>
+        <v>2.279173763118777</v>
       </c>
       <c r="F17">
-        <v>1.845106269159459</v>
+        <v>3.269513633086348</v>
       </c>
       <c r="G17">
-        <v>0.002439825076206287</v>
+        <v>0.0007292482646951648</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5490190725099424</v>
+        <v>0.3493232458680993</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.425854649977055</v>
+        <v>7.9886402577539</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.556885007822345</v>
+        <v>0.7645119216308416</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.06690455164824982</v>
+        <v>0.1972452412905312</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.047985598704404</v>
+        <v>0.02984635595736762</v>
       </c>
       <c r="E18">
-        <v>0.5790626707886446</v>
+        <v>2.208130216039351</v>
       </c>
       <c r="F18">
-        <v>1.828755263178806</v>
+        <v>3.181955898876737</v>
       </c>
       <c r="G18">
-        <v>0.002441220172074949</v>
+        <v>0.0007320479701181308</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.549247924546421</v>
+        <v>0.3475461793149393</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.373847250533345</v>
+        <v>7.756622102658127</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.559878833736825</v>
+        <v>0.7708332572513257</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.06638034323255226</v>
+        <v>0.195598430886065</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04800719036507317</v>
+        <v>0.02974751174265577</v>
       </c>
       <c r="E19">
-        <v>0.5740743687862135</v>
+        <v>2.184299529901637</v>
       </c>
       <c r="F19">
-        <v>1.823241679059407</v>
+        <v>3.15258326983448</v>
       </c>
       <c r="G19">
-        <v>0.002441695584437498</v>
+        <v>0.0007329950739929506</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5493297777733019</v>
+        <v>0.3469658939797355</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.356257499945059</v>
+        <v>7.678573873368407</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.560902905272528</v>
+        <v>0.7730256092535654</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.06873927544239677</v>
+        <v>0.2030075647757883</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04791223752341978</v>
+        <v>0.03021768466130226</v>
       </c>
       <c r="E20">
-        <v>0.5965396218323633</v>
+        <v>2.292432102797605</v>
       </c>
       <c r="F20">
-        <v>1.848143230212685</v>
+        <v>3.28585192911882</v>
       </c>
       <c r="G20">
-        <v>0.002439568325918149</v>
+        <v>0.000728729646096731</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5489787936025223</v>
+        <v>0.3496625078496649</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.43548915907752</v>
+        <v>8.031831042739555</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.556335869568812</v>
+        <v>0.7633672078530225</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.07666312421523003</v>
+        <v>0.2278722077283248</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04763234522815907</v>
+        <v>0.03230013780996188</v>
       </c>
       <c r="E21">
-        <v>0.672339426516956</v>
+        <v>2.673674634809615</v>
       </c>
       <c r="F21">
-        <v>1.933397820969248</v>
+        <v>3.754995907917476</v>
       </c>
       <c r="G21">
-        <v>0.002432632867204777</v>
+        <v>0.0007143001009238018</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5481044407498885</v>
+        <v>0.3603417687238846</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.703055212458423</v>
+        <v>9.259078800058319</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.541718881684645</v>
+        <v>0.7348590608247179</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.08183957679544562</v>
+        <v>0.2441015733899121</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04747911114676384</v>
+        <v>0.03411917119908026</v>
       </c>
       <c r="E22">
-        <v>0.7221370817743917</v>
+        <v>2.939490616475382</v>
       </c>
       <c r="F22">
-        <v>1.99032176387135</v>
+        <v>4.080768112060525</v>
       </c>
       <c r="G22">
-        <v>0.002428257072606777</v>
+        <v>0.0007047412988624363</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5477615057918825</v>
+        <v>0.3687013270857591</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.87897643635506</v>
+        <v>10.09789345877584</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.532711966407646</v>
+        <v>0.719597016717799</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.07907706726611252</v>
+        <v>0.2354415724124408</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04755814425668348</v>
+        <v>0.0331002960572917</v>
       </c>
       <c r="E23">
-        <v>0.6955342292189073</v>
+        <v>2.795854942410827</v>
       </c>
       <c r="F23">
-        <v>1.959828751652026</v>
+        <v>3.904911872078372</v>
       </c>
       <c r="G23">
-        <v>0.002430578218926072</v>
+        <v>0.0007098587239947386</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5479235471582413</v>
+        <v>0.3641010360343344</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.784985248938654</v>
+        <v>9.646359833215058</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.537468907733412</v>
+        <v>0.7274033814784673</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.06860973885676458</v>
+        <v>0.2026008017079164</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04791730596341637</v>
+        <v>0.0301901585453237</v>
       </c>
       <c r="E24">
-        <v>0.5953047850704536</v>
+        <v>2.286433814897194</v>
       </c>
       <c r="F24">
-        <v>1.846769831838913</v>
+        <v>3.278460316343569</v>
       </c>
       <c r="G24">
-        <v>0.002439684345419355</v>
+        <v>0.0007289641288431727</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5489969240822603</v>
+        <v>0.3495087286663434</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.431133121753021</v>
+        <v>8.012295081614184</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.556583941637655</v>
+        <v>0.7638837473985944</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.05731501751981227</v>
+        <v>0.1670815958350289</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04842883869280357</v>
+        <v>0.02852297336897891</v>
       </c>
       <c r="E25">
-        <v>0.4881709990556828</v>
+        <v>1.788909572488748</v>
       </c>
       <c r="F25">
-        <v>1.729856005680574</v>
+        <v>2.665623743880246</v>
       </c>
       <c r="G25">
-        <v>0.002450186758937369</v>
+        <v>0.0007493514022816234</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5511276956902904</v>
+        <v>0.338645358936752</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.053709198861611</v>
+        <v>6.367459657710754</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.579522791424509</v>
+        <v>0.8151068293824153</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1408334959901509</v>
+        <v>3.359150847171691</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0281575924590669</v>
+        <v>0.0001724766033075475</v>
       </c>
       <c r="E2">
-        <v>1.451218184045189</v>
+        <v>1.848870183816274</v>
       </c>
       <c r="F2">
-        <v>2.251880466305082</v>
+        <v>1.436721258197096</v>
       </c>
       <c r="G2">
-        <v>0.0007644544970001642</v>
+        <v>1.488680989255528</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.46183639309866E-05</v>
       </c>
       <c r="I2">
-        <v>0.3339220063343475</v>
+        <v>0.0119752254494494</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.7435028536149844</v>
       </c>
       <c r="K2">
-        <v>5.223492947785246</v>
+        <v>0.5696543648494909</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8608120249065578</v>
+        <v>1.701992992627936</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1229783402520255</v>
+        <v>2.931828973714119</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02830242112423775</v>
+        <v>0.0001523667454956801</v>
       </c>
       <c r="E3">
-        <v>1.234393562940639</v>
+        <v>1.631225655519003</v>
       </c>
       <c r="F3">
-        <v>1.988558541704549</v>
+        <v>1.242645087068595</v>
       </c>
       <c r="G3">
-        <v>0.0007748540998383339</v>
+        <v>1.280161989779032</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0001757820391490306</v>
       </c>
       <c r="I3">
-        <v>0.3324041914972078</v>
+        <v>0.01501396838180957</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6533058858961738</v>
       </c>
       <c r="K3">
-        <v>4.477171663868774</v>
+        <v>0.549862842688718</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8959203143383192</v>
+        <v>1.483286404433187</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1119803258672576</v>
+        <v>2.669012599347127</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02854755826816202</v>
+        <v>0.0001746241857638609</v>
       </c>
       <c r="E4">
-        <v>1.105686830014889</v>
+        <v>1.498992547735256</v>
       </c>
       <c r="F4">
-        <v>1.833609128071146</v>
+        <v>1.126482102785531</v>
       </c>
       <c r="G4">
-        <v>0.000781348983581234</v>
+        <v>1.15531077651832</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0006099069142105062</v>
       </c>
       <c r="I4">
-        <v>0.3322034845158903</v>
+        <v>0.01712852304271806</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5996477327044829</v>
       </c>
       <c r="K4">
-        <v>4.029763379066878</v>
+        <v>0.5392588148462352</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9192858142894238</v>
+        <v>1.349625522938396</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1074895723544813</v>
+        <v>2.561785094252343</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02868201536015391</v>
+        <v>0.0001866015419249578</v>
       </c>
       <c r="E5">
-        <v>1.054159099315498</v>
+        <v>1.448046075632007</v>
       </c>
       <c r="F5">
-        <v>1.771939936174803</v>
+        <v>1.078773571903142</v>
       </c>
       <c r="G5">
-        <v>0.0007840269137000945</v>
+        <v>1.103926945535875</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0008650585444021919</v>
       </c>
       <c r="I5">
-        <v>0.3322925073807994</v>
+        <v>0.01813372002188851</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5775447847805708</v>
       </c>
       <c r="K5">
-        <v>3.84972207571667</v>
+        <v>0.5370468828966608</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9292321918879978</v>
+        <v>1.296956033809124</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1067433386463321</v>
+        <v>2.543972200066094</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02870630382103556</v>
+        <v>0.0001833895616878412</v>
       </c>
       <c r="E6">
-        <v>1.04565349554116</v>
+        <v>1.442834283051866</v>
       </c>
       <c r="F6">
-        <v>1.761782924756616</v>
+        <v>1.069631561720954</v>
       </c>
       <c r="G6">
-        <v>0.0007844735666957978</v>
+        <v>1.093969805933682</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0009111056825053671</v>
       </c>
       <c r="I6">
-        <v>0.332317249475679</v>
+        <v>0.01841476238933115</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5731391897918172</v>
       </c>
       <c r="K6">
-        <v>3.819952162854122</v>
+        <v>0.5388397010225958</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9309086179019346</v>
+        <v>1.290253301483347</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1119197985827114</v>
+        <v>2.667566925281164</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02854923741837112</v>
+        <v>0.0001595039796375985</v>
       </c>
       <c r="E7">
-        <v>1.104988412784365</v>
+        <v>1.507146533689848</v>
       </c>
       <c r="F7">
-        <v>1.832771738263929</v>
+        <v>1.122401345304624</v>
       </c>
       <c r="G7">
-        <v>0.0007813849681415075</v>
+        <v>1.150614600219114</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0006109901051554595</v>
       </c>
       <c r="I7">
-        <v>0.3322040097865795</v>
+        <v>0.01742714373008525</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5972805898372542</v>
       </c>
       <c r="K7">
-        <v>4.027326590374741</v>
+        <v>0.545096973481094</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9194182721386213</v>
+        <v>1.354482801798667</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1346841439445825</v>
+        <v>3.211886847354947</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02817204519498517</v>
+        <v>0.0001387659936691321</v>
       </c>
       <c r="E8">
-        <v>1.375414989865121</v>
+        <v>1.785310340350918</v>
       </c>
       <c r="F8">
-        <v>2.159549811886663</v>
+        <v>1.364572291472115</v>
       </c>
       <c r="G8">
-        <v>0.0007680199161708146</v>
+        <v>1.410755360305984</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.456320065096328E-06</v>
       </c>
       <c r="I8">
-        <v>0.333238591040292</v>
+        <v>0.01331005083306991</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.7092812374026209</v>
       </c>
       <c r="K8">
-        <v>4.963627592119451</v>
+        <v>0.5704556898780524</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8725226898109355</v>
+        <v>1.633857332259254</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.17906018857893</v>
+        <v>4.276768523573935</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02892790940253676</v>
+        <v>0.0004530727083280617</v>
       </c>
       <c r="E9">
-        <v>1.95114607790552</v>
+        <v>2.32827399650705</v>
       </c>
       <c r="F9">
-        <v>2.865274265804118</v>
+        <v>1.874331493809947</v>
       </c>
       <c r="G9">
-        <v>0.0007424859050609872</v>
+        <v>1.958748375943372</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001846323809982175</v>
       </c>
       <c r="I9">
-        <v>0.3417418601116609</v>
+        <v>0.006959039003727518</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.9488372126579065</v>
       </c>
       <c r="K9">
-        <v>6.909125995305317</v>
+        <v>0.6223623168232422</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7964818966382268</v>
+        <v>2.177620383179374</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2115214932743896</v>
+        <v>5.059008292340309</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03084074691188476</v>
+        <v>0.0009039812355857713</v>
       </c>
       <c r="E10">
-        <v>2.419683125509209</v>
+        <v>2.799624262007896</v>
       </c>
       <c r="F10">
-        <v>3.4426098949763</v>
+        <v>2.251555130431072</v>
       </c>
       <c r="G10">
-        <v>0.0007238117945974825</v>
+        <v>2.362321222039668</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.005609769303696499</v>
       </c>
       <c r="I10">
-        <v>0.3530348084599169</v>
+        <v>0.004035334734370899</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.125398765491298</v>
       </c>
       <c r="K10">
-        <v>8.444622132333109</v>
+        <v>0.6995540027845237</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.752923176683808</v>
+        <v>2.555937552989661</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2262622507308549</v>
+        <v>5.41434352518263</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03214041633775366</v>
+        <v>0.001447492040510534</v>
       </c>
       <c r="E11">
-        <v>2.648075593794047</v>
+        <v>3.565518120652797</v>
       </c>
       <c r="F11">
-        <v>3.723552428339048</v>
+        <v>2.246840576529351</v>
       </c>
       <c r="G11">
-        <v>0.0007152413411396119</v>
+        <v>2.340145267541061</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02542611865094457</v>
       </c>
       <c r="I11">
-        <v>0.3595732308292199</v>
+        <v>0.003656005555438213</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.100964763596807</v>
       </c>
       <c r="K11">
-        <v>9.177564867106128</v>
+        <v>1.025919720919532</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7365196927645883</v>
+        <v>2.485933630384977</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2318406361326453</v>
+        <v>5.549004773745253</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03270940121940669</v>
+        <v>0.002828967237046065</v>
       </c>
       <c r="E12">
-        <v>2.737350644118081</v>
+        <v>4.157721660848807</v>
       </c>
       <c r="F12">
-        <v>3.833161063802635</v>
+        <v>2.168384489205806</v>
       </c>
       <c r="G12">
-        <v>0.0007119750130293121</v>
+        <v>2.243810320322439</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06458110872754474</v>
       </c>
       <c r="I12">
-        <v>0.3622825246361359</v>
+        <v>0.003329729735491505</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.046511009901337</v>
       </c>
       <c r="K12">
-        <v>9.461281750156616</v>
+        <v>1.328918100836233</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7308775070518578</v>
+        <v>2.339039554007599</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2306393909929909</v>
+        <v>5.520075252137246</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03258315914810339</v>
+        <v>0.004827427233008663</v>
       </c>
       <c r="E13">
-        <v>2.717988478260366</v>
+        <v>4.657137976004435</v>
       </c>
       <c r="F13">
-        <v>3.809400738484044</v>
+        <v>2.020776267811655</v>
       </c>
       <c r="G13">
-        <v>0.0007126795895965554</v>
+        <v>2.075897769347563</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1201109464027468</v>
       </c>
       <c r="I13">
-        <v>0.361688072928338</v>
+        <v>0.003340358274658506</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.9612591233881744</v>
       </c>
       <c r="K13">
-        <v>9.399881493800819</v>
+        <v>1.635651161328411</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7320658788019472</v>
+        <v>2.13478915022344</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2267212599979445</v>
+        <v>5.425611294378655</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03218558649751913</v>
+        <v>0.006622429765338111</v>
       </c>
       <c r="E14">
-        <v>2.655360459616091</v>
+        <v>4.971977139940122</v>
       </c>
       <c r="F14">
-        <v>3.732501567552049</v>
+        <v>1.886303820615822</v>
       </c>
       <c r="G14">
-        <v>0.00071497310284453</v>
+        <v>1.926332770501745</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1690181105701072</v>
       </c>
       <c r="I14">
-        <v>0.3597912435135768</v>
+        <v>0.003580341983187019</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.8877395234058554</v>
       </c>
       <c r="K14">
-        <v>9.20077483989968</v>
+        <v>1.859132277893167</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7360435791952682</v>
+        <v>1.969231689343246</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2243208224869306</v>
+        <v>5.367660037469079</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03195258282397617</v>
+        <v>0.007076833400589067</v>
       </c>
       <c r="E15">
-        <v>2.617382376695673</v>
+        <v>5.024971884195736</v>
       </c>
       <c r="F15">
-        <v>3.685837956990696</v>
+        <v>1.837730168195932</v>
       </c>
       <c r="G15">
-        <v>0.0007163748885059935</v>
+        <v>1.873233290586199</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1812139858380846</v>
       </c>
       <c r="I15">
-        <v>0.3586608254430388</v>
+        <v>0.003844933101727399</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.8625823931890011</v>
       </c>
       <c r="K15">
-        <v>9.079660339751797</v>
+        <v>1.911123442435937</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7385568347426386</v>
+        <v>1.918896545575876</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.210557638607483</v>
+        <v>5.035001742612963</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03076565353552496</v>
+        <v>0.006260172504905626</v>
       </c>
       <c r="E16">
-        <v>2.405111445261255</v>
+        <v>4.705998317964799</v>
       </c>
       <c r="F16">
-        <v>3.424665468790437</v>
+        <v>1.6988487298606</v>
       </c>
       <c r="G16">
-        <v>0.0007243695688985907</v>
+        <v>1.726639142273626</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1663328632063354</v>
       </c>
       <c r="I16">
-        <v>0.3526382807324921</v>
+        <v>0.00500168999150219</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.8002679351686197</v>
       </c>
       <c r="K16">
-        <v>8.397513274705602</v>
+        <v>1.804273144639097</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7540701932437059</v>
+        <v>1.806985682829946</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2021078134408043</v>
+        <v>4.830929356350623</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03015706714179345</v>
+        <v>0.004648403909925491</v>
       </c>
       <c r="E17">
-        <v>2.279173763118777</v>
+        <v>4.293680744995982</v>
       </c>
       <c r="F17">
-        <v>3.269513633086348</v>
+        <v>1.66499732125439</v>
       </c>
       <c r="G17">
-        <v>0.0007292482646951648</v>
+        <v>1.694826628529597</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1273188537351757</v>
       </c>
       <c r="I17">
-        <v>0.3493232458680993</v>
+        <v>0.005869359067111724</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.7921585901931962</v>
       </c>
       <c r="K17">
-        <v>7.9886402577539</v>
+        <v>1.602735956018748</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7645119216308416</v>
+        <v>1.808186958198519</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1972452412905312</v>
+        <v>4.713579233204655</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02984635595736762</v>
+        <v>0.002575122851942169</v>
       </c>
       <c r="E18">
-        <v>2.208130216039351</v>
+        <v>3.768801782994387</v>
       </c>
       <c r="F18">
-        <v>3.181955898876737</v>
+        <v>1.719452002785445</v>
       </c>
       <c r="G18">
-        <v>0.0007320479701181308</v>
+        <v>1.761001162462378</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07391706533894649</v>
       </c>
       <c r="I18">
-        <v>0.3475461793149393</v>
+        <v>0.006149418214040914</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.8310851682450675</v>
       </c>
       <c r="K18">
-        <v>7.756622102658127</v>
+        <v>1.311470542692092</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7708332572513257</v>
+        <v>1.904053545400217</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.195598430886065</v>
+        <v>4.674067188533513</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02974751174265577</v>
+        <v>0.001056263616907138</v>
       </c>
       <c r="E19">
-        <v>2.184299529901637</v>
+        <v>3.249693361622064</v>
       </c>
       <c r="F19">
-        <v>3.15258326983448</v>
+        <v>1.837232165888153</v>
       </c>
       <c r="G19">
-        <v>0.0007329950739929506</v>
+        <v>1.89801847885866</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02877899407780404</v>
       </c>
       <c r="I19">
-        <v>0.3469658939797355</v>
+        <v>0.006395904030966904</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.9030014225267564</v>
       </c>
       <c r="K19">
-        <v>7.678573873368407</v>
+        <v>1.023080869200257</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7730256092535654</v>
+        <v>2.08264853044443</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2030075647757883</v>
+        <v>4.853555605548252</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03021768466130226</v>
+        <v>0.0007299692169060457</v>
       </c>
       <c r="E20">
-        <v>2.292432102797605</v>
+        <v>2.705761026321355</v>
       </c>
       <c r="F20">
-        <v>3.28585192911882</v>
+        <v>2.138903857819599</v>
       </c>
       <c r="G20">
-        <v>0.000728729646096731</v>
+        <v>2.240658301742002</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.004444370277618681</v>
       </c>
       <c r="I20">
-        <v>0.3496625078496649</v>
+        <v>0.005526657559712156</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.071010828697183</v>
       </c>
       <c r="K20">
-        <v>8.031831042739555</v>
+        <v>0.700091116267906</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7633672078530225</v>
+        <v>2.472750170142263</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2278722077283248</v>
+        <v>5.454437648123985</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03230013780996188</v>
+        <v>0.001306387275131549</v>
       </c>
       <c r="E21">
-        <v>2.673674634809615</v>
+        <v>2.979913726645464</v>
       </c>
       <c r="F21">
-        <v>3.754995907917476</v>
+        <v>2.473374921534827</v>
       </c>
       <c r="G21">
-        <v>0.0007143001009238018</v>
+        <v>2.602128411981283</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.008195024822376853</v>
       </c>
       <c r="I21">
-        <v>0.3603417687238846</v>
+        <v>0.003639187808217592</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.232703286326256</v>
       </c>
       <c r="K21">
-        <v>9.259078800058319</v>
+        <v>0.7167086278570309</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7348590608247179</v>
+        <v>2.806479758807768</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2441015733899121</v>
+        <v>5.847634029782228</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03411917119908026</v>
+        <v>0.001752457764921722</v>
       </c>
       <c r="E22">
-        <v>2.939490616475382</v>
+        <v>3.179430161637214</v>
       </c>
       <c r="F22">
-        <v>4.080768112060525</v>
+        <v>2.69330227793219</v>
       </c>
       <c r="G22">
-        <v>0.0007047412988624363</v>
+        <v>2.839359808352469</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01124700918910407</v>
       </c>
       <c r="I22">
-        <v>0.3687013270857591</v>
+        <v>0.002467472976093177</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.338795442903262</v>
       </c>
       <c r="K22">
-        <v>10.09789345877584</v>
+        <v>0.734904729933902</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.719597016717799</v>
+        <v>3.00383993670016</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2354415724124408</v>
+        <v>5.637704931863993</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0331002960572917</v>
+        <v>0.001516069220382832</v>
       </c>
       <c r="E23">
-        <v>2.795854942410827</v>
+        <v>3.061772522736817</v>
       </c>
       <c r="F23">
-        <v>3.904911872078372</v>
+        <v>2.57919115087428</v>
       </c>
       <c r="G23">
-        <v>0.0007098587239947386</v>
+        <v>2.71661052032789</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.009543495353909998</v>
       </c>
       <c r="I23">
-        <v>0.3641010360343344</v>
+        <v>0.002738155195924463</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.284169902021432</v>
       </c>
       <c r="K23">
-        <v>9.646359833215058</v>
+        <v>0.7172676417217545</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7274033814784673</v>
+        <v>2.891617801513689</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2026008017079164</v>
+        <v>4.843834615940125</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0301901585453237</v>
+        <v>0.0007865101746307168</v>
       </c>
       <c r="E24">
-        <v>2.286433814897194</v>
+        <v>2.640335393903527</v>
       </c>
       <c r="F24">
-        <v>3.278460316343569</v>
+        <v>2.156128922024749</v>
       </c>
       <c r="G24">
-        <v>0.0007289641288431727</v>
+        <v>2.261256071537787</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.004356535156239395</v>
       </c>
       <c r="I24">
-        <v>0.3495087286663434</v>
+        <v>0.005017967153720271</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.08185801439916</v>
       </c>
       <c r="K24">
-        <v>8.012295081614184</v>
+        <v>0.6665554565832252</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7638837473985944</v>
+        <v>2.480059121579387</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1670815958350289</v>
+        <v>3.988807647613328</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02852297336897891</v>
+        <v>0.0003021376225951222</v>
       </c>
       <c r="E25">
-        <v>1.788909572488748</v>
+        <v>2.195918748683496</v>
       </c>
       <c r="F25">
-        <v>2.665623743880246</v>
+        <v>1.726414067738389</v>
       </c>
       <c r="G25">
-        <v>0.0007493514022816234</v>
+        <v>1.799163265172552</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0009793846008378237</v>
       </c>
       <c r="I25">
-        <v>0.338645358936752</v>
+        <v>0.008891770741533911</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.8781904841325741</v>
       </c>
       <c r="K25">
-        <v>6.367459657710754</v>
+        <v>0.6181162012394239</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8151068293824153</v>
+        <v>2.039955665709755</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.359150847171691</v>
+        <v>3.363436022764915</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0001724766033075475</v>
+        <v>0.001158251109420583</v>
       </c>
       <c r="E2">
-        <v>1.848870183816274</v>
+        <v>1.516457346660559</v>
       </c>
       <c r="F2">
-        <v>1.436721258197096</v>
+        <v>1.540396756187079</v>
       </c>
       <c r="G2">
-        <v>1.488680989255528</v>
+        <v>1.625914958559974</v>
       </c>
       <c r="H2">
-        <v>2.46183639309866E-05</v>
+        <v>9.640175241182325E-05</v>
       </c>
       <c r="I2">
-        <v>0.0119752254494494</v>
+        <v>0.008333303427236594</v>
       </c>
       <c r="J2">
-        <v>0.7435028536149844</v>
+        <v>0.8582463842706431</v>
       </c>
       <c r="K2">
-        <v>0.5696543648494909</v>
+        <v>0.3870109977744534</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1423325105340894</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.15042697619824</v>
       </c>
       <c r="N2">
-        <v>1.701992992627936</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.524772411409828</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.931828973714119</v>
+        <v>2.934598166384035</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001523667454956801</v>
+        <v>0.001198587958450403</v>
       </c>
       <c r="E3">
-        <v>1.631225655519003</v>
+        <v>1.328623451615059</v>
       </c>
       <c r="F3">
-        <v>1.242645087068595</v>
+        <v>1.341950011682783</v>
       </c>
       <c r="G3">
-        <v>1.280161989779032</v>
+        <v>1.402933815135981</v>
       </c>
       <c r="H3">
-        <v>0.0001757820391490306</v>
+        <v>4.45337661258427E-05</v>
       </c>
       <c r="I3">
-        <v>0.01501396838180957</v>
+        <v>0.01041924537919403</v>
       </c>
       <c r="J3">
-        <v>0.6533058858961738</v>
+        <v>0.7682567254833828</v>
       </c>
       <c r="K3">
-        <v>0.549862842688718</v>
+        <v>0.3808172870962672</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1345710548765098</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1551757538522729</v>
       </c>
       <c r="N3">
-        <v>1.483286404433187</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.322501724337314</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.669012599347127</v>
+        <v>2.670661238011178</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0001746241857638609</v>
+        <v>0.001239581106911913</v>
       </c>
       <c r="E4">
-        <v>1.498992547735256</v>
+        <v>1.214728418265622</v>
       </c>
       <c r="F4">
-        <v>1.126482102785531</v>
+        <v>1.222494900803781</v>
       </c>
       <c r="G4">
-        <v>1.15531077651832</v>
+        <v>1.269101737113942</v>
       </c>
       <c r="H4">
-        <v>0.0006099069142105062</v>
+        <v>0.0002903646394616377</v>
       </c>
       <c r="I4">
-        <v>0.01712852304271806</v>
+        <v>0.01188967379607941</v>
       </c>
       <c r="J4">
-        <v>0.5996477327044829</v>
+        <v>0.7137659767265347</v>
       </c>
       <c r="K4">
-        <v>0.5392588148462352</v>
+        <v>0.3782851387836708</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1308002763485607</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1585646423567901</v>
       </c>
       <c r="N4">
-        <v>1.349625522938396</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.198993549207813</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.561785094252343</v>
+        <v>2.562933010658696</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001866015419249578</v>
+        <v>0.001250012901115483</v>
       </c>
       <c r="E5">
-        <v>1.448046075632007</v>
+        <v>1.170459431998779</v>
       </c>
       <c r="F5">
-        <v>1.078773571903142</v>
+        <v>1.173494126730489</v>
       </c>
       <c r="G5">
-        <v>1.103926945535875</v>
+        <v>1.214250017987865</v>
       </c>
       <c r="H5">
-        <v>0.0008650585444021919</v>
+        <v>0.0004547827104720015</v>
       </c>
       <c r="I5">
-        <v>0.01813372002188851</v>
+        <v>0.01263173912788762</v>
       </c>
       <c r="J5">
-        <v>0.5775447847805708</v>
+        <v>0.6912061917961978</v>
       </c>
       <c r="K5">
-        <v>0.5370468828966608</v>
+        <v>0.3784027401292391</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1296916086433573</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1605061089528057</v>
       </c>
       <c r="N5">
-        <v>1.296956033809124</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1.150046012542617</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.543972200066094</v>
+        <v>2.545031834977351</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0001833895616878412</v>
+        <v>0.001240112180051156</v>
       </c>
       <c r="E6">
-        <v>1.442834283051866</v>
+        <v>1.165359745893156</v>
       </c>
       <c r="F6">
-        <v>1.069631561720954</v>
+        <v>1.164358391634934</v>
       </c>
       <c r="G6">
-        <v>1.093969805933682</v>
+        <v>1.203981404357108</v>
       </c>
       <c r="H6">
-        <v>0.0009111056825053671</v>
+        <v>0.0004856962691744959</v>
       </c>
       <c r="I6">
-        <v>0.01841476238933115</v>
+        <v>0.01288595044241614</v>
       </c>
       <c r="J6">
-        <v>0.5731391897918172</v>
+        <v>0.6868350808306332</v>
       </c>
       <c r="K6">
-        <v>0.5388397010225958</v>
+        <v>0.3794774843439228</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1297475912958568</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1613838689822096</v>
       </c>
       <c r="N6">
-        <v>1.290253301483347</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.143429518507077</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.667566925281164</v>
+        <v>2.669197627458914</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0001595039796375985</v>
+        <v>0.001167464438257326</v>
       </c>
       <c r="E7">
-        <v>1.507146533689848</v>
+        <v>1.218227055556866</v>
       </c>
       <c r="F7">
-        <v>1.122401345304624</v>
+        <v>1.215068057792834</v>
       </c>
       <c r="G7">
-        <v>1.150614600219114</v>
+        <v>1.269188434473079</v>
       </c>
       <c r="H7">
-        <v>0.0006109901051554595</v>
+        <v>0.0002938668591448423</v>
       </c>
       <c r="I7">
-        <v>0.01742714373008525</v>
+        <v>0.01223615601045935</v>
       </c>
       <c r="J7">
-        <v>0.5972805898372542</v>
+        <v>0.7001369865759557</v>
       </c>
       <c r="K7">
-        <v>0.545096973481094</v>
+        <v>0.3815924038539826</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1315573994255903</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1602849343023003</v>
       </c>
       <c r="N7">
-        <v>1.354482801798667</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.201222072869911</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.211886847354947</v>
+        <v>3.215660087583956</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0001387659936691321</v>
+        <v>0.0009999798071458343</v>
       </c>
       <c r="E8">
-        <v>1.785310340350918</v>
+        <v>1.452747378344696</v>
       </c>
       <c r="F8">
-        <v>1.364572291472115</v>
+        <v>1.454435019438364</v>
       </c>
       <c r="G8">
-        <v>1.410755360305984</v>
+        <v>1.557747891479522</v>
       </c>
       <c r="H8">
-        <v>1.456320065096328E-06</v>
+        <v>1.622616035062974E-05</v>
       </c>
       <c r="I8">
-        <v>0.01331005083306991</v>
+        <v>0.009425888854111442</v>
       </c>
       <c r="J8">
-        <v>0.7092812374026209</v>
+        <v>0.7861926570689945</v>
       </c>
       <c r="K8">
-        <v>0.5704556898780524</v>
+        <v>0.3901599025495308</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1410148609021995</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1545407505635197</v>
       </c>
       <c r="N8">
-        <v>1.633857332259254</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.456242069121259</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.276768523573935</v>
+        <v>4.282972446677263</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0004530727083280617</v>
+        <v>0.001025301003902968</v>
       </c>
       <c r="E9">
-        <v>2.32827399650705</v>
+        <v>1.922057175919932</v>
       </c>
       <c r="F9">
-        <v>1.874331493809947</v>
+        <v>1.966215069336926</v>
       </c>
       <c r="G9">
-        <v>1.958748375943372</v>
+        <v>2.144394106098559</v>
       </c>
       <c r="H9">
-        <v>0.001846323809982175</v>
+        <v>0.001928831337346337</v>
       </c>
       <c r="I9">
-        <v>0.006959039003727518</v>
+        <v>0.005020651482557703</v>
       </c>
       <c r="J9">
-        <v>0.9488372126579065</v>
+        <v>1.006937556577867</v>
       </c>
       <c r="K9">
-        <v>0.6223623168232422</v>
+        <v>0.4103373734841682</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1655382179596003</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1439505754874943</v>
       </c>
       <c r="N9">
-        <v>2.177620383179374</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.959562498220976</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.059008292340309</v>
+        <v>5.065316280442175</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0009039812355857713</v>
+        <v>0.0008495703793522935</v>
       </c>
       <c r="E10">
-        <v>2.799624262007896</v>
+        <v>2.30887560982211</v>
       </c>
       <c r="F10">
-        <v>2.251555130431072</v>
+        <v>2.319975121653812</v>
       </c>
       <c r="G10">
-        <v>2.362321222039668</v>
+        <v>2.604749221406962</v>
       </c>
       <c r="H10">
-        <v>0.005609769303696499</v>
+        <v>0.00522840796944557</v>
       </c>
       <c r="I10">
-        <v>0.004035334734370899</v>
+        <v>0.00317006079203086</v>
       </c>
       <c r="J10">
-        <v>1.125398765491298</v>
+        <v>1.096865552543107</v>
       </c>
       <c r="K10">
-        <v>0.6995540027845237</v>
+        <v>0.4505390539532144</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1953340248212214</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1458645532224025</v>
       </c>
       <c r="N10">
-        <v>2.555937552989661</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2.294772937399841</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.41434352518263</v>
+        <v>5.41948486364862</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.001447492040510534</v>
+        <v>0.0001715632193104444</v>
       </c>
       <c r="E11">
-        <v>3.565518120652797</v>
+        <v>2.85556090730239</v>
       </c>
       <c r="F11">
-        <v>2.246840576529351</v>
+        <v>2.293592285281719</v>
       </c>
       <c r="G11">
-        <v>2.340145267541061</v>
+        <v>2.682453845463272</v>
       </c>
       <c r="H11">
-        <v>0.02542611865094457</v>
+        <v>0.02447087120665969</v>
       </c>
       <c r="I11">
-        <v>0.003656005555438213</v>
+        <v>0.003305728892407878</v>
       </c>
       <c r="J11">
-        <v>1.100964763596807</v>
+        <v>0.9432785593319295</v>
       </c>
       <c r="K11">
-        <v>1.025919720919532</v>
+        <v>0.6249977067979486</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2681573193631195</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2046285194952446</v>
       </c>
       <c r="N11">
-        <v>2.485933630384977</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2.149902593585068</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.549004773745253</v>
+        <v>5.55323492291285</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.002828967237046065</v>
+        <v>0.0006118185360355355</v>
       </c>
       <c r="E12">
-        <v>4.157721660848807</v>
+        <v>3.26940967121061</v>
       </c>
       <c r="F12">
-        <v>2.168384489205806</v>
+        <v>2.215061049830496</v>
       </c>
       <c r="G12">
-        <v>2.243810320322439</v>
+        <v>2.638436153826461</v>
       </c>
       <c r="H12">
-        <v>0.06458110872754474</v>
+        <v>0.06325834375626016</v>
       </c>
       <c r="I12">
-        <v>0.003329729735491505</v>
+        <v>0.003150469233465181</v>
       </c>
       <c r="J12">
-        <v>1.046511009901337</v>
+        <v>0.8424523330390628</v>
       </c>
       <c r="K12">
-        <v>1.328918100836233</v>
+        <v>0.7842596058827311</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.3311438109081735</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2612134214887689</v>
       </c>
       <c r="N12">
-        <v>2.339039554007599</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1.96032335180081</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.520075252137246</v>
+        <v>5.523775670655084</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.004827427233008663</v>
+        <v>0.001465856876023075</v>
       </c>
       <c r="E13">
-        <v>4.657137976004435</v>
+        <v>3.618689751644069</v>
       </c>
       <c r="F13">
-        <v>2.020776267811655</v>
+        <v>2.094672021060376</v>
       </c>
       <c r="G13">
-        <v>2.075897769347563</v>
+        <v>2.480455117281821</v>
       </c>
       <c r="H13">
-        <v>0.1201109464027468</v>
+        <v>0.1186328320906966</v>
       </c>
       <c r="I13">
-        <v>0.003340358274658506</v>
+        <v>0.003197873472725377</v>
       </c>
       <c r="J13">
-        <v>0.9612591233881744</v>
+        <v>0.7914027890843727</v>
       </c>
       <c r="K13">
-        <v>1.635651161328411</v>
+        <v>0.9385960853250737</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.3877071684711524</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3198842466492735</v>
       </c>
       <c r="N13">
-        <v>2.13478915022344</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1.73600875032642</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.425611294378655</v>
+        <v>5.429126001457405</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.006622429765338111</v>
+        <v>0.002174666256285818</v>
       </c>
       <c r="E14">
-        <v>4.971977139940122</v>
+        <v>3.839493887235705</v>
       </c>
       <c r="F14">
-        <v>1.886303820615822</v>
+        <v>1.990126423185217</v>
       </c>
       <c r="G14">
-        <v>1.926332770501745</v>
+        <v>2.319926921196839</v>
       </c>
       <c r="H14">
-        <v>0.1690181105701072</v>
+        <v>0.1675286923898227</v>
       </c>
       <c r="I14">
-        <v>0.003580341983187019</v>
+        <v>0.003428174871834777</v>
       </c>
       <c r="J14">
-        <v>0.8877395234058554</v>
+        <v>0.7743522753843024</v>
       </c>
       <c r="K14">
-        <v>1.859132277893167</v>
+        <v>1.04695130136723</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.4247945859730109</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.363407403723734</v>
       </c>
       <c r="N14">
-        <v>1.969231689343246</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1.566232953606345</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.367660037469079</v>
+        <v>5.371220032388351</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.007076833400589067</v>
+        <v>0.002297757390484989</v>
       </c>
       <c r="E15">
-        <v>5.024971884195736</v>
+        <v>3.877168586752902</v>
       </c>
       <c r="F15">
-        <v>1.837730168195932</v>
+        <v>1.953810471554632</v>
       </c>
       <c r="G15">
-        <v>1.873233290586199</v>
+        <v>2.257013542570348</v>
       </c>
       <c r="H15">
-        <v>0.1812139858380846</v>
+        <v>0.1797768906924233</v>
       </c>
       <c r="I15">
-        <v>0.003844933101727399</v>
+        <v>0.003684752495664689</v>
       </c>
       <c r="J15">
-        <v>0.8625823931890011</v>
+        <v>0.7772567909782424</v>
       </c>
       <c r="K15">
-        <v>1.911123442435937</v>
+        <v>1.070613384341641</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4316170790903371</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3740408981750747</v>
       </c>
       <c r="N15">
-        <v>1.918896545575876</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1.518156599075951</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.035001742612963</v>
+        <v>5.039386423795861</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.006260172504905626</v>
+        <v>0.001542544246492916</v>
       </c>
       <c r="E16">
-        <v>4.705998317964799</v>
+        <v>3.655300051026813</v>
       </c>
       <c r="F16">
-        <v>1.6988487298606</v>
+        <v>1.854936181615869</v>
       </c>
       <c r="G16">
-        <v>1.726639142273626</v>
+        <v>2.049230522919572</v>
       </c>
       <c r="H16">
-        <v>0.1663328632063354</v>
+        <v>0.165425283797461</v>
       </c>
       <c r="I16">
-        <v>0.00500168999150219</v>
+        <v>0.004523757378973592</v>
       </c>
       <c r="J16">
-        <v>0.8002679351686197</v>
+        <v>0.8364630776407012</v>
       </c>
       <c r="K16">
-        <v>1.804273144639097</v>
+        <v>1.004121753569009</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3965261457076963</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3582072507482437</v>
       </c>
       <c r="N16">
-        <v>1.806985682829946</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.43860852204935</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.830929356350623</v>
+        <v>4.835842426529439</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.004648403909925491</v>
+        <v>0.0008104134839683752</v>
       </c>
       <c r="E17">
-        <v>4.293680744995982</v>
+        <v>3.361660622090568</v>
       </c>
       <c r="F17">
-        <v>1.66499732125439</v>
+        <v>1.830323535235365</v>
       </c>
       <c r="G17">
-        <v>1.694826628529597</v>
+        <v>1.981939190992591</v>
       </c>
       <c r="H17">
-        <v>0.1273188537351757</v>
+        <v>0.1267355142221618</v>
       </c>
       <c r="I17">
-        <v>0.005869359067111724</v>
+        <v>0.005115702049486082</v>
       </c>
       <c r="J17">
-        <v>0.7921585901931962</v>
+        <v>0.8783536527223532</v>
       </c>
       <c r="K17">
-        <v>1.602735956018748</v>
+        <v>0.898312340964992</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3518727672748199</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.3231577898332887</v>
       </c>
       <c r="N17">
-        <v>1.808186958198519</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1.465037218862022</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.713579233204655</v>
+        <v>4.718979906694756</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.002575122851942169</v>
+        <v>0.0001844606823331318</v>
       </c>
       <c r="E18">
-        <v>3.768801782994387</v>
+        <v>2.988257858060621</v>
       </c>
       <c r="F18">
-        <v>1.719452002785445</v>
+        <v>1.876736184784789</v>
       </c>
       <c r="G18">
-        <v>1.761001162462378</v>
+        <v>2.019485752164684</v>
       </c>
       <c r="H18">
-        <v>0.07391706533894649</v>
+        <v>0.07355727555570013</v>
       </c>
       <c r="I18">
-        <v>0.006149418214040914</v>
+        <v>0.005111050060714106</v>
       </c>
       <c r="J18">
-        <v>0.8310851682450675</v>
+        <v>0.9328861829409902</v>
       </c>
       <c r="K18">
-        <v>1.311470542692092</v>
+        <v>0.7512679356736953</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.295681676486879</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2691546582167845</v>
       </c>
       <c r="N18">
-        <v>1.904053545400217</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.588656954788348</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.674067188533513</v>
+        <v>4.67991334033519</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.001056263616907138</v>
+        <v>6.628781817785701E-05</v>
       </c>
       <c r="E19">
-        <v>3.249693361622064</v>
+        <v>2.618777140619883</v>
       </c>
       <c r="F19">
-        <v>1.837232165888153</v>
+        <v>1.976278054564276</v>
       </c>
       <c r="G19">
-        <v>1.89801847885866</v>
+        <v>2.130913053683599</v>
       </c>
       <c r="H19">
-        <v>0.02877899407780404</v>
+        <v>0.02855456149373481</v>
       </c>
       <c r="I19">
-        <v>0.006395904030966904</v>
+        <v>0.005248603793592821</v>
       </c>
       <c r="J19">
-        <v>0.9030014225267564</v>
+        <v>1.000546309812364</v>
       </c>
       <c r="K19">
-        <v>1.023080869200257</v>
+        <v>0.6080892159308959</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2435134177306821</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.214264102041561</v>
       </c>
       <c r="N19">
-        <v>2.08264853044443</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1.796247630431765</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.853555605548252</v>
+        <v>4.859965982672577</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0007299692169060457</v>
+        <v>0.0009165925930680885</v>
       </c>
       <c r="E20">
-        <v>2.705761026321355</v>
+        <v>2.235990754101053</v>
       </c>
       <c r="F20">
-        <v>2.138903857819599</v>
+        <v>2.230876497072174</v>
       </c>
       <c r="G20">
-        <v>2.240658301742002</v>
+        <v>2.455402301507803</v>
       </c>
       <c r="H20">
-        <v>0.004444370277618681</v>
+        <v>0.004232745296498752</v>
       </c>
       <c r="I20">
-        <v>0.005526657559712156</v>
+        <v>0.004570424610361279</v>
       </c>
       <c r="J20">
-        <v>1.071010828697183</v>
+        <v>1.108813477542782</v>
       </c>
       <c r="K20">
-        <v>0.700091116267906</v>
+        <v>0.4492335128150842</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1906288238965033</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1489880198052127</v>
       </c>
       <c r="N20">
-        <v>2.472750170142263</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>2.222746667586563</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.454437648123985</v>
+        <v>5.460063713196973</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.001306387275131549</v>
+        <v>0.0005729190733543277</v>
       </c>
       <c r="E21">
-        <v>2.979913726645464</v>
+        <v>2.428947625637264</v>
       </c>
       <c r="F21">
-        <v>2.473374921534827</v>
+        <v>2.460732286129144</v>
       </c>
       <c r="G21">
-        <v>2.602128411981283</v>
+        <v>2.935961363654513</v>
       </c>
       <c r="H21">
-        <v>0.008195024822376853</v>
+        <v>0.007301648191117199</v>
       </c>
       <c r="I21">
-        <v>0.003639187808217592</v>
+        <v>0.003347605036620571</v>
       </c>
       <c r="J21">
-        <v>1.232703286326256</v>
+        <v>0.9856751065642015</v>
       </c>
       <c r="K21">
-        <v>0.7167086278570309</v>
+        <v>0.4697155773235409</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.210837804117304</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1461712100718664</v>
       </c>
       <c r="N21">
-        <v>2.806479758807768</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>2.507040503919654</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.847634029782228</v>
+        <v>5.852227070141396</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.001752457764921722</v>
+        <v>0.0004515717377904238</v>
       </c>
       <c r="E22">
-        <v>3.179430161637214</v>
+        <v>2.566611339721092</v>
       </c>
       <c r="F22">
-        <v>2.69330227793219</v>
+        <v>2.604195377329489</v>
       </c>
       <c r="G22">
-        <v>2.839359808352469</v>
+        <v>3.261482150284849</v>
       </c>
       <c r="H22">
-        <v>0.01124700918910407</v>
+        <v>0.009731634490208987</v>
       </c>
       <c r="I22">
-        <v>0.002467472976093177</v>
+        <v>0.002425696673244104</v>
       </c>
       <c r="J22">
-        <v>1.338795442903262</v>
+        <v>0.8973384466444827</v>
       </c>
       <c r="K22">
-        <v>0.734904729933902</v>
+        <v>0.4879999572521712</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.226329757647278</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1461650346756294</v>
       </c>
       <c r="N22">
-        <v>3.00383993670016</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>2.668773203010318</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.637704931863993</v>
+        <v>5.642965636069789</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.001516069220382832</v>
+        <v>0.0005623741774707369</v>
       </c>
       <c r="E23">
-        <v>3.061772522736817</v>
+        <v>2.491140562572355</v>
       </c>
       <c r="F23">
-        <v>2.57919115087428</v>
+        <v>2.541242682600995</v>
       </c>
       <c r="G23">
-        <v>2.71661052032789</v>
+        <v>3.078831856849547</v>
       </c>
       <c r="H23">
-        <v>0.009543495353909998</v>
+        <v>0.008406777763248247</v>
       </c>
       <c r="I23">
-        <v>0.002738155195924463</v>
+        <v>0.002506015233723957</v>
       </c>
       <c r="J23">
-        <v>1.284169902021432</v>
+        <v>0.9725366642012716</v>
       </c>
       <c r="K23">
-        <v>0.7172676417217545</v>
+        <v>0.4721956114562715</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2157020497971871</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.143969475622697</v>
       </c>
       <c r="N23">
-        <v>2.891617801513689</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>2.580901879360965</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.843834615940125</v>
+        <v>4.850320129623015</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0007865101746307168</v>
+        <v>0.001074009455215297</v>
       </c>
       <c r="E24">
-        <v>2.640335393903527</v>
+        <v>2.188670433861503</v>
       </c>
       <c r="F24">
-        <v>2.156128922024749</v>
+        <v>2.245032047770636</v>
       </c>
       <c r="G24">
-        <v>2.261256071537787</v>
+        <v>2.470502932721104</v>
       </c>
       <c r="H24">
-        <v>0.004356535156239395</v>
+        <v>0.004170918915453209</v>
       </c>
       <c r="I24">
-        <v>0.005017967153720271</v>
+        <v>0.003944381198620839</v>
       </c>
       <c r="J24">
-        <v>1.08185801439916</v>
+        <v>1.119880551024892</v>
       </c>
       <c r="K24">
-        <v>0.6665554565832252</v>
+        <v>0.4317943041315004</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1841183390318761</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1424522667114623</v>
       </c>
       <c r="N24">
-        <v>2.480059121579387</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>2.237244591777312</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.988807647613328</v>
+        <v>3.994581773217021</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0003021376225951222</v>
+        <v>0.001000783984564713</v>
       </c>
       <c r="E25">
-        <v>2.195918748683496</v>
+        <v>1.807844352294182</v>
       </c>
       <c r="F25">
-        <v>1.726414067738389</v>
+        <v>1.825434712022115</v>
       </c>
       <c r="G25">
-        <v>1.799163265172552</v>
+        <v>1.969811631438091</v>
       </c>
       <c r="H25">
-        <v>0.0009793846008378237</v>
+        <v>0.001116513982861278</v>
       </c>
       <c r="I25">
-        <v>0.008891770741533911</v>
+        <v>0.006574271120614483</v>
       </c>
       <c r="J25">
-        <v>0.8781904841325741</v>
+        <v>0.9598207522391249</v>
       </c>
       <c r="K25">
-        <v>0.6181162012394239</v>
+        <v>0.4090148315300866</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1598026572520617</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1485642933701392</v>
       </c>
       <c r="N25">
-        <v>2.039955665709755</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.831992929968692</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
